--- a/AccidentData.xlsx
+++ b/AccidentData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\car-accident\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5641659-1743-4D0B-9D60-AD776C943861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42462B92-6DCE-44C7-83B3-865C9E416092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A5B4B02-FE23-4EBE-8387-611224C5DCCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>สถานที่เกิดเหตุ</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>ฉลองกรุง 1</t>
+  </si>
+  <si>
+    <t>ตราด</t>
+  </si>
+  <si>
+    <t>car crash</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -188,6 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E45E8-FCD6-43BF-B648-887C3C6923A3}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,6 +845,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>12.4202239</v>
+      </c>
+      <c r="C14">
+        <v>102.5298028</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>243955</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
